--- a/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
+++ b/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="4" activeTab="15"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8.12" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,10 +55,22 @@
     <t>工作阶段</t>
   </si>
   <si>
+    <t>确定维度</t>
+  </si>
+  <si>
+    <t>策划阶段</t>
+  </si>
+  <si>
     <t>建立需求</t>
   </si>
   <si>
     <t>需求阶段</t>
+  </si>
+  <si>
+    <t>完善需求</t>
+  </si>
+  <si>
+    <t>需求评审</t>
   </si>
   <si>
     <t>框架建立</t>
@@ -70,19 +82,22 @@
     <t>确定功能</t>
   </si>
   <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>算子实现</t>
+  </si>
+  <si>
+    <t>编码阶段</t>
+  </si>
+  <si>
     <t>数据搜寻</t>
   </si>
   <si>
     <t>爬虫编写</t>
   </si>
   <si>
-    <t>编码阶段</t>
-  </si>
-  <si>
     <t>spark环境搭建</t>
-  </si>
-  <si>
-    <t>算子实现</t>
   </si>
   <si>
     <t>数据库建立</t>
@@ -114,11 +129,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,9 +152,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +200,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,35 +208,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +243,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +260,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,31 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,31 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,42 +485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -797,29 +812,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,50 +879,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -920,16 +913,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,137 +940,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,7 +1179,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,13 +1528,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -1599,42 +1600,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="41">
+    <row r="6" ht="14.55" spans="1:6">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="1:6">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
@@ -1710,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -1808,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -1822,13 +1808,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1912,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2010,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2029,7 +2015,7 @@
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2113,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2211,13 +2197,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2248,7 +2234,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2309,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2347,7 +2333,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2407,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2421,13 +2407,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2437,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2511,26 +2497,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
+      <c r="F5" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2539,20 +2525,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2573,13 +2559,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -2636,21 +2622,81 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="14.55" spans="3:7">
+      <c r="C13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="14.55" spans="3:7">
+      <c r="C17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
@@ -2725,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2823,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2921,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3019,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3033,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3123,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3137,13 +3183,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
+++ b/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="8.12" sheetId="1" r:id="rId1"/>
@@ -85,22 +85,22 @@
     <t>数据库设计</t>
   </si>
   <si>
+    <t>数据搜寻</t>
+  </si>
+  <si>
+    <t>数据库建立</t>
+  </si>
+  <si>
     <t>算子实现</t>
   </si>
   <si>
     <t>编码阶段</t>
   </si>
   <si>
-    <t>数据搜寻</t>
-  </si>
-  <si>
     <t>爬虫编写</t>
   </si>
   <si>
     <t>spark环境搭建</t>
-  </si>
-  <si>
-    <t>数据库建立</t>
   </si>
   <si>
     <t>前后端连接</t>
@@ -130,10 +130,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +153,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -168,7 +219,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,14 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -207,51 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,32 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,91 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +353,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,31 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,12 +455,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -825,10 +825,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -849,41 +919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -898,40 +933,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,137 +951,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,6 +1190,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1702,7 +1714,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -1814,7 +1826,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2535,10 +2547,10 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2559,13 +2571,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -2628,75 +2640,30 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="1:6">
+      <c r="A6" s="42">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="14.55" spans="3:7">
-      <c r="C13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="14.55" spans="3:7">
-      <c r="C17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
@@ -2708,13 +2675,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -2771,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2788,13 +2755,69 @@
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
     </row>
+    <row r="14" ht="14.55" spans="4:8">
+      <c r="D14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="14.55" spans="4:8">
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
@@ -2869,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2967,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3071,7 +3094,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3079,13 +3102,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3198,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3189,7 +3212,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
+++ b/Documents/05项目监督/02工作日志/项目级-项目工作日志-Version_1.0.0-alpha-20200829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8.12" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="8.18" sheetId="6" r:id="rId6"/>
     <sheet name="8.19" sheetId="7" r:id="rId7"/>
     <sheet name="8.20" sheetId="8" r:id="rId8"/>
-    <sheet name="8.21" sheetId="9" r:id="rId9"/>
-    <sheet name="8.22" sheetId="10" r:id="rId10"/>
+    <sheet name="8.22" sheetId="9" r:id="rId9"/>
+    <sheet name="8.23" sheetId="10" r:id="rId10"/>
     <sheet name="8.24" sheetId="11" r:id="rId11"/>
     <sheet name="8.25" sheetId="12" r:id="rId12"/>
     <sheet name="8.26" sheetId="13" r:id="rId13"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -91,37 +91,52 @@
     <t>数据库建立</t>
   </si>
   <si>
+    <t>算法设计</t>
+  </si>
+  <si>
+    <t>爬虫编写</t>
+  </si>
+  <si>
+    <t>编码阶段</t>
+  </si>
+  <si>
     <t>算子实现</t>
   </si>
   <si>
-    <t>编码阶段</t>
-  </si>
-  <si>
-    <t>爬虫编写</t>
-  </si>
-  <si>
     <t>spark环境搭建</t>
   </si>
   <si>
-    <t>前后端连接</t>
+    <t>建立数据库</t>
+  </si>
+  <si>
+    <t>前端编写</t>
+  </si>
+  <si>
+    <t>前后端交互</t>
   </si>
   <si>
     <t>前端优化</t>
   </si>
   <si>
-    <t>功能补全</t>
+    <t>功能完善</t>
   </si>
   <si>
     <t>测试阶段</t>
   </si>
   <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
     <t>单元测试</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>系统测试</t>
+  </si>
+  <si>
+    <t>评审</t>
+  </si>
+  <si>
+    <t>评审阶段</t>
   </si>
 </sst>
 </file>
@@ -129,11 +144,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -160,15 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,74 +208,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +227,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -288,9 +281,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,25 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,37 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,6 +847,78 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,48 +940,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -903,46 +948,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,19 +966,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,112 +987,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,10 +1201,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1648,7 +1663,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1714,16 +1729,22 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1746,7 +1767,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F2"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1812,21 +1833,21 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="14.55" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1871,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1916,16 +1937,22 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1948,7 +1975,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2014,7 +2041,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2027,7 +2054,7 @@
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2111,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2209,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2247,7 +2274,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2307,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2514,7 +2541,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2528,7 +2555,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2573,8 +2600,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2675,13 +2702,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -2733,91 +2760,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="14.55" spans="1:6">
       <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="1:6">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="14.55" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="14" ht="14.55" spans="4:8">
-      <c r="D14" s="26" t="s">
+      <c r="F6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="D16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8">
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="14.55" spans="4:8">
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="20" spans="4:8">
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D20:G20"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
@@ -2832,7 +2809,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2892,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -2930,7 +2907,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2990,22 +2967,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3028,7 +3011,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -3064,7 +3047,7 @@
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>8.2</v>
       </c>
       <c r="F3" s="38"/>
@@ -3094,7 +3077,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3102,13 +3085,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3129,13 +3112,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
@@ -3198,7 +3181,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:6">
@@ -3206,22 +3189,78 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="14.55" spans="10:14">
+      <c r="J34" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="14.55" spans="10:14">
+      <c r="J38" s="26"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="40" spans="10:14">
+      <c r="J40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J40:M40"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
   </mergeCells>
